--- a/FFE-AddIn/FFE.xlsx
+++ b/FFE-AddIn/FFE.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E03E2-476C-40CB-AB8D-89FE02EE7F0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C649A473-7E1D-4FE0-82FE-CB02CDB27084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AVQ - QAVD" sheetId="1" r:id="rId1"/>
-    <sheet name="AVQ - QAVDA" sheetId="10" r:id="rId2"/>
-    <sheet name="AVQ - QAVW" sheetId="11" r:id="rId3"/>
-    <sheet name="AVQ - QAVWA" sheetId="14" r:id="rId4"/>
-    <sheet name="AVQ - QAVM" sheetId="12" r:id="rId5"/>
-    <sheet name="AVQ - QAVMA" sheetId="13" r:id="rId6"/>
-    <sheet name="AVQ - QAVTS" sheetId="15" r:id="rId7"/>
-    <sheet name="CBQ" sheetId="2" r:id="rId8"/>
-    <sheet name="JEQ" sheetId="4" r:id="rId9"/>
-    <sheet name="YFQ" sheetId="9" r:id="rId10"/>
+    <sheet name="Openiban" sheetId="16" r:id="rId1"/>
+    <sheet name="AVQ - QAVD" sheetId="1" r:id="rId2"/>
+    <sheet name="AVQ - QAVDA" sheetId="10" r:id="rId3"/>
+    <sheet name="AVQ - QAVW" sheetId="11" r:id="rId4"/>
+    <sheet name="AVQ - QAVWA" sheetId="14" r:id="rId5"/>
+    <sheet name="AVQ - QAVM" sheetId="12" r:id="rId6"/>
+    <sheet name="AVQ - QAVMA" sheetId="13" r:id="rId7"/>
+    <sheet name="AVQ - QAVTS" sheetId="15" r:id="rId8"/>
+    <sheet name="CBQ" sheetId="2" r:id="rId9"/>
+    <sheet name="JEQ" sheetId="4" r:id="rId10"/>
+    <sheet name="YFQ" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="AVQB_1">#REF!</definedName>
     <definedName name="AVQB_2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,15 +32,39 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="107">
   <si>
     <t>Quote</t>
   </si>
@@ -333,6 +358,33 @@
   </si>
   <si>
     <t>60min</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Bank Code</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>DE89370400440532013000</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Country Name</t>
   </si>
 </sst>
 </file>
@@ -345,7 +397,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,13 +420,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -390,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -423,6 +489,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -439,6 +506,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D08763CB-DD2F-4007-B825-CB3E452695E2}" name="Tabelle1" displayName="Tabelle1" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{E8272C01-6A7B-4115-AC0E-C4A2D5D28DE4}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E8E94225-1F7D-4012-9A3F-88E442B6D788}" name="IBAN"/>
+    <tableColumn id="2" xr3:uid="{BBB3ABF0-3834-4CB4-949E-A3F57E3ECBA3}" name="BIC">
+      <calculatedColumnFormula array="1">_xll.FFE.OPENIBAN.QBIC(A2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CD9CFBAA-231B-43B9-BF20-F13AD3E437DB}" name="Tabelle2" displayName="Tabelle2" ref="A4:D5" totalsRowShown="0">
+  <autoFilter ref="A4:D5" xr:uid="{015C54D5-844F-4256-BC29-67F6D2299141}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{837CCA7C-CFBA-43D7-BB66-506AF57FC2F6}" name="Country"/>
+    <tableColumn id="2" xr3:uid="{5163A3AD-EC2F-49B0-8545-60E57FB4943B}" name="Bank Code"/>
+    <tableColumn id="3" xr3:uid="{1A5435A1-324E-4528-84E4-B6EBED5A5CC9}" name="Account Number"/>
+    <tableColumn id="4" xr3:uid="{8D397B68-88E5-400C-BD36-BC661B44BAF1}" name="IBAN">
+      <calculatedColumnFormula array="1">_xll.FFE.OPENIBAN.QIBAN(A5,B5,C5)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,337 +806,957 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CA8F72-978B-4D93-8AC0-52B46B299CF0}">
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.41796875" customWidth="1"/>
-    <col min="3" max="3" width="11.3671875" customWidth="1"/>
-    <col min="4" max="6" width="11.41796875" customWidth="1"/>
-    <col min="7" max="7" width="13.9453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.89453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2">_xll.FFE.OPENIBAN.QBIC(A2)</f>
+        <v>COBADEFFXXX</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>37040044</v>
+      </c>
+      <c r="C5">
+        <v>532013000</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" ref="D5">_xll.FFE.OPENIBAN.QIBAN(A5,B5,C5)</f>
+        <v>DE89370400440532013000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="str" cm="1">
+        <f t="array" ref="A8:B101">_xll.FFE.OPENIBAN.QCOUNTRIES()</f>
+        <v>Albania</v>
+      </c>
+      <c r="B8" t="str">
+        <v>AL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>Algeria</v>
+      </c>
+      <c r="B9" t="str">
+        <v>DZ</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>Andorra</v>
+      </c>
+      <c r="B10" t="str">
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>Angola</v>
+      </c>
+      <c r="B11" t="str">
+        <v>AO</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>Austria</v>
+      </c>
+      <c r="B12" t="str">
+        <v>AT</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>Azerbaijan</v>
+      </c>
+      <c r="B13" t="str">
+        <v>AZ</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>Bahrain</v>
+      </c>
+      <c r="B14" t="str">
+        <v>BH</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>Belgium</v>
+      </c>
+      <c r="B15" t="str">
+        <v>BE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>Benin</v>
+      </c>
+      <c r="B16" t="str">
+        <v>BJ</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>Bosnia and Herzegovina</v>
+      </c>
+      <c r="B17" t="str">
+        <v>BA</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="B18" t="str">
+        <v>BR</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>British Virgin Islands</v>
+      </c>
+      <c r="B19" t="str">
+        <v>VG</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>Bulgaria</v>
+      </c>
+      <c r="B20" t="str">
+        <v>BG</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>Burkina Faso</v>
+      </c>
+      <c r="B21" t="str">
+        <v>BF</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>Burundi</v>
+      </c>
+      <c r="B22" t="str">
+        <v>BI</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v>Cameroon</v>
+      </c>
+      <c r="B23" t="str">
+        <v>CM</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v>Cape Verde</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CV</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>Central African Republic</v>
+      </c>
+      <c r="B25" t="str">
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>Congo</v>
+      </c>
+      <c r="B26" t="str">
+        <v>CG</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>Costa Rica</v>
+      </c>
+      <c r="B27" t="str">
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <v>Croatia</v>
+      </c>
+      <c r="B28" t="str">
+        <v>HR</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <v>Cyprus</v>
+      </c>
+      <c r="B29" t="str">
+        <v>CY</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <v>Czech Republic</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CZ</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <v>Denmark</v>
+      </c>
+      <c r="B31" t="str">
+        <v>DK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <v>Dominican Republic</v>
+      </c>
+      <c r="B32" t="str">
+        <v>DO</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <v>Egypt</v>
+      </c>
+      <c r="B33" t="str">
+        <v>EG</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <v>Estonia</v>
+      </c>
+      <c r="B34" t="str">
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <v>Faroe Islands</v>
+      </c>
+      <c r="B35" t="str">
+        <v>FO</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <v>Finland</v>
+      </c>
+      <c r="B36" t="str">
+        <v>FI</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <v>France</v>
+      </c>
+      <c r="B37" t="str">
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <v>French Guiana</v>
+      </c>
+      <c r="B38" t="str">
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <v>French Polynesia</v>
+      </c>
+      <c r="B39" t="str">
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <v>Gabon</v>
+      </c>
+      <c r="B40" t="str">
+        <v>GA</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <v>Georgia</v>
+      </c>
+      <c r="B41" t="str">
+        <v>GE</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="B42" t="str">
+        <v>DE</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <v>Gibraltar</v>
+      </c>
+      <c r="B43" t="str">
+        <v>GI</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <v>Greece</v>
+      </c>
+      <c r="B44" t="str">
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <v>Greenland</v>
+      </c>
+      <c r="B45" t="str">
+        <v>GL</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <v>Guadeloupe</v>
+      </c>
+      <c r="B46" t="str">
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <v>Guatemala</v>
+      </c>
+      <c r="B47" t="str">
+        <v>GT</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <v>Guernsey</v>
+      </c>
+      <c r="B48" t="str">
+        <v>GB</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <v>Hungary</v>
+      </c>
+      <c r="B49" t="str">
+        <v>HU</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <v>Iceland</v>
+      </c>
+      <c r="B50" t="str">
+        <v>IS</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <v>Iran</v>
+      </c>
+      <c r="B51" t="str">
+        <v>IR</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <v>Ireland</v>
+      </c>
+      <c r="B52" t="str">
+        <v>IE</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <v>Isle of Man</v>
+      </c>
+      <c r="B53" t="str">
+        <v>GB</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <v>Israel</v>
+      </c>
+      <c r="B54" t="str">
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="B55" t="str">
+        <v>IT</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <v>Ivory Coast</v>
+      </c>
+      <c r="B56" t="str">
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <v>Jersey</v>
+      </c>
+      <c r="B57" t="str">
+        <v>GB</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <v>Kazakhstan</v>
+      </c>
+      <c r="B58" t="str">
+        <v>KZ</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <v>Kuwait</v>
+      </c>
+      <c r="B59" t="str">
+        <v>KW</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="B60" t="str">
+        <v>LV</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <v>Lebanon</v>
+      </c>
+      <c r="B61" t="str">
+        <v>LB</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <v>Liechtenstein</v>
+      </c>
+      <c r="B62" t="str">
+        <v>LI</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <v>Lithuania</v>
+      </c>
+      <c r="B63" t="str">
+        <v>LT</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <v>Luxembourg</v>
+      </c>
+      <c r="B64" t="str">
+        <v>LU</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <v>Macedonia</v>
+      </c>
+      <c r="B65" t="str">
+        <v>MK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <v>Madagascar</v>
+      </c>
+      <c r="B66" t="str">
+        <v>MG</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <v>Mali</v>
+      </c>
+      <c r="B67" t="str">
+        <v>ML</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <v>Malta</v>
+      </c>
+      <c r="B68" t="str">
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <v>Martinique</v>
+      </c>
+      <c r="B69" t="str">
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <v>Mauritania</v>
+      </c>
+      <c r="B70" t="str">
+        <v>MR</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
+        <v>Mauritius</v>
+      </c>
+      <c r="B71" t="str">
+        <v>MU</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
+        <v>Moldova</v>
+      </c>
+      <c r="B72" t="str">
+        <v>MD</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
+        <v>Monaco</v>
+      </c>
+      <c r="B73" t="str">
+        <v>MC</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
+        <v>Montenegro</v>
+      </c>
+      <c r="B74" t="str">
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
+        <v>Mozambique</v>
+      </c>
+      <c r="B75" t="str">
+        <v>MZ</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
+        <v>Netherlands</v>
+      </c>
+      <c r="B76" t="str">
+        <v>NL</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
+        <v>New Caledonia</v>
+      </c>
+      <c r="B77" t="str">
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
+        <v>Norway</v>
+      </c>
+      <c r="B78" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
+        <v>Pakistan</v>
+      </c>
+      <c r="B79" t="str">
+        <v>PK</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <v>Palestine, State of</v>
+      </c>
+      <c r="B80" t="str">
+        <v>PS</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="B81" t="str">
+        <v>PL</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <v>Portugal</v>
+      </c>
+      <c r="B82" t="str">
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <v>Romania</v>
+      </c>
+      <c r="B83" t="str">
+        <v>RO</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <v>Réunion</v>
+      </c>
+      <c r="B84" t="str">
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <v>Saint-Pierre and Miquelon</v>
+      </c>
+      <c r="B85" t="str">
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <v>San Marino</v>
+      </c>
+      <c r="B86" t="str">
+        <v>SM</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <v>Sao Tome and Principe</v>
+      </c>
+      <c r="B87" t="str">
+        <v>PT</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="B88" t="str">
+        <v>SA</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <v>Senegal</v>
+      </c>
+      <c r="B89" t="str">
+        <v>SN</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
+        <v>Serbia</v>
+      </c>
+      <c r="B90" t="str">
+        <v>RS</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <v>Slovakia</v>
+      </c>
+      <c r="B91" t="str">
+        <v>SK</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
+        <v>Slovenia</v>
+      </c>
+      <c r="B92" t="str">
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="B93" t="str">
+        <v>ES</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
+        <v>Sweden</v>
+      </c>
+      <c r="B94" t="str">
+        <v>SE</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
+        <v>Switzerland</v>
+      </c>
+      <c r="B95" t="str">
+        <v>CH</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
+        <v>Tunisia</v>
+      </c>
+      <c r="B96" t="str">
+        <v>TN</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
+        <v>Turkey</v>
+      </c>
+      <c r="B97" t="str">
+        <v>TR</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
+        <v>Ukraine</v>
+      </c>
+      <c r="B98" t="str">
+        <v>UA</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="B99" t="str">
+        <v>AE</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="B100" t="str">
+        <v>GB</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
+        <v>Wallis and Futuna</v>
+      </c>
+      <c r="B101" t="str">
+        <v>FR</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0814B209-FB44-4821-A66E-2214B4B6EE6B}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="1" t="str">
-        <f>_xll.QAVD(A2,B2)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <f>_xll.QJE(A2)</f>
+        <v>59.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="1" t="str">
-        <f>_xll.QAVD(A3,B3)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B12" si="0">_xll.QJE(A3)</f>
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="1" t="str">
-        <f>_xll.QAVD(A4,B4)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="1" t="str">
-        <f>_xll.QAVD(A5,B5)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <f>_xll.QJE(A5)</f>
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="13" t="str">
-        <f>_xll.QAVD(A6,B6)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>36.549999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="1" t="str">
-        <f>_xll.QAVD(A7)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>333.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="1" t="str">
-        <f>_xll.QAVD(A8,B8,C8)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>30.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="1" t="str">
-        <f>_xll.QAVD(A9,B9,C9)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>67.540000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="1" t="str">
-        <f>_xll.QAVD(A10,B10,C10)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>96.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>-3</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="1" t="str">
-        <f>_xll.QAVD(A11,B11,C11)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <f ca="1">TODAY()</f>
-        <v>43970</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="1" t="e">
-        <f ca="1">_xll.QAVD(A12,B12,,D12)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <f ca="1">TODAY()-1</f>
-        <v>43969</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="1" t="e">
-        <f ca="1">_xll.QAVD(A13,B13,C13,D13)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <f ca="1">TODAY()-2</f>
-        <v>43968</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="1" t="e">
-        <f ca="1">_xll.QAVD(A14,B14,C14,D14)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>43824</v>
-      </c>
-      <c r="E15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="1" t="str">
-        <f>_xll.QAVD(A15,B15,C15,D15,E15)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>101</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f>_xll.QAVD(A16,B16,C16,D16,E16,F16)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>20.309999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E83494F-D2BA-483B-878B-97036609801B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1050,9 +1773,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -1060,58 +1783,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <f>_xll.QYF(A2)</f>
-        <v>162.28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>215.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3">
         <f>_xll.QYF(A3)</f>
-        <v>308.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>116.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4">
         <f>_xll.QYF(A4)</f>
-        <v>214.87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>277.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5">
         <f>_xll.QYF(A5)</f>
-        <v>65.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>47.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6">
         <f>_xll.QYF(A6)</f>
-        <v>47.47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7">
         <f>_xll.QYF(A7)</f>
-        <v>59.91</v>
+        <v>60.58</v>
       </c>
     </row>
   </sheetData>
@@ -1121,6 +1844,346 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="1" t="str">
+        <f>_xll.QAVD(A2,B2)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="1" t="str">
+        <f>_xll.QAVD(A3,B3)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="1" t="str">
+        <f>_xll.QAVD(A4,B4)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="1" t="str">
+        <f>_xll.QAVD(A5,B5)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13" t="str">
+        <f>_xll.QAVD(A6,B6)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="1" t="str">
+        <f>_xll.QAVD(A7)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="1" t="str">
+        <f>_xll.QAVD(A8,B8,C8)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="1" t="str">
+        <f>_xll.QAVD(A9,B9,C9)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="1" t="str">
+        <f>_xll.QAVD(A10,B10,C10)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-3</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="1" t="str">
+        <f>_xll.QAVD(A11,B11,C11)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <f ca="1">TODAY()</f>
+        <v>44165</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="1" t="str">
+        <f ca="1">_xll.QAVD(A12,B12,,D12)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <f ca="1">TODAY()-1</f>
+        <v>44164</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="1" t="str">
+        <f ca="1">_xll.QAVD(A13,B13,C13,D13)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <f ca="1">TODAY()-2</f>
+        <v>44163</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="1" t="str">
+        <f ca="1">_xll.QAVD(A14,B14,C14,D14)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43824</v>
+      </c>
+      <c r="E15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="1" t="str">
+        <f>_xll.QAVD(A15,B15,C15,D15,E15)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>101</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>_xll.QAVD(A16,B16,C16,D16,E16,F16)</f>
+        <v>#AV_CALL_LIMIT_REACHED</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F7DF7B-D02B-426E-A88D-D90515604158}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -1129,17 +2192,17 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3671875" customWidth="1"/>
-    <col min="4" max="6" width="11.41796875" customWidth="1"/>
-    <col min="7" max="7" width="13.9453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +2228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +2245,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +2262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1216,7 +2279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +2296,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +2313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +2330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +2347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +2364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1318,7 +2381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1335,7 +2398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +2418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +2438,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +2458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1404,19 +2467,19 @@
       </c>
       <c r="D15" s="4">
         <f ca="1">TODAY()</f>
-        <v>43970</v>
+        <v>44165</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="1" t="e">
+      <c r="G15" s="1" t="str">
         <f ca="1">_xll.QAVDA(A15,B15,,D15)</f>
-        <v>#NAME?</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1425,19 +2488,19 @@
       </c>
       <c r="D16" s="4">
         <f ca="1">TODAY()-1</f>
-        <v>43969</v>
+        <v>44164</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="1" t="e">
+      <c r="G16" s="1" t="str">
         <f ca="1">_xll.QAVDA(A16,B16,C16,D16)</f>
-        <v>#NAME?</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1449,19 +2512,19 @@
       </c>
       <c r="D17" s="4">
         <f ca="1">TODAY()-2</f>
-        <v>43968</v>
+        <v>44163</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="1" t="e">
+      <c r="G17" s="1" t="str">
         <f ca="1">_xll.QAVDA(A17,B17,C17,D17)</f>
-        <v>#NAME?</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +2546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +2574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F49695B-0322-4293-B304-671B000F9496}">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -1520,16 +2583,16 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.41796875" customWidth="1"/>
-    <col min="3" max="3" width="11.3671875" customWidth="1"/>
-    <col min="4" max="5" width="11.41796875" customWidth="1"/>
-    <col min="6" max="6" width="13.9453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.89453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1552,7 +2615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +2631,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +2647,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1600,7 +2663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1616,7 +2679,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +2695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +2711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +2727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1683,7 +2746,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +2765,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +2786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1732,18 +2795,18 @@
       </c>
       <c r="D12" s="4">
         <f ca="1">TODAY()</f>
-        <v>43970</v>
+        <v>44165</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="1" t="e">
+      <c r="F12" s="1" t="str">
         <f ca="1">_xll.QAVW(A12,B12,,D12)</f>
-        <v>#NAME?</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1762,7 +2825,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1784,7 +2847,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1805,7 +2868,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +2893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91FA1E5-7E78-4640-A7F1-4011A0524A60}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -1839,17 +2902,17 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3671875" customWidth="1"/>
-    <col min="4" max="5" width="11.41796875" customWidth="1"/>
-    <col min="6" max="6" width="15.62890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1872,7 +2935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1888,7 +2951,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1904,7 +2967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +2983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +2999,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1952,7 +3015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1968,7 +3031,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1984,7 +3047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2000,7 +3063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2016,7 +3079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +3098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +3117,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2075,7 +3138,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2084,18 +3147,18 @@
       </c>
       <c r="D14" s="4">
         <f ca="1">TODAY()</f>
-        <v>43970</v>
+        <v>44165</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="1" t="e">
+      <c r="F14" s="1" t="str">
         <f ca="1">_xll.QAVWA(A14,B14,,D14)</f>
-        <v>#NAME?</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2114,7 +3177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2136,7 +3199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2157,7 +3220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +3245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA4838C-0562-43B2-8FC6-18DEC0A62523}">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -2191,16 +3254,16 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.41796875" customWidth="1"/>
-    <col min="3" max="3" width="11.3671875" customWidth="1"/>
-    <col min="4" max="5" width="11.41796875" customWidth="1"/>
-    <col min="6" max="6" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.89453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2223,7 +3286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +3302,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2255,7 +3318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +3334,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2287,7 +3350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2303,7 +3366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2319,7 +3382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2335,7 +3398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +3417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2373,7 +3436,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +3457,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2403,18 +3466,18 @@
       </c>
       <c r="D12" s="4">
         <f ca="1">TODAY()</f>
-        <v>43970</v>
+        <v>44165</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="1" t="e">
+      <c r="F12" s="1" t="str">
         <f ca="1">_xll.QAVM(A12,B12,,D12)</f>
-        <v>#NAME?</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2433,7 +3496,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2455,7 +3518,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2476,7 +3539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +3564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5D0229-FF80-44DD-895C-A7D4C34DBF2F}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -2510,17 +3573,17 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3671875" customWidth="1"/>
-    <col min="4" max="5" width="11.41796875" customWidth="1"/>
-    <col min="6" max="6" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2543,7 +3606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2559,7 +3622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2575,7 +3638,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2591,7 +3654,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2607,7 +3670,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2623,7 +3686,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2631,15 +3694,15 @@
         <v>7</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="13">
+      <c r="F7" s="13" t="str">
         <f>_xll.QAVMA(A7,B7)</f>
-        <v>815647080</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2647,15 +3710,15 @@
         <v>59</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="14">
+      <c r="F8" s="14" t="str">
         <f>_xll.QAVMA(A8,B8)</f>
-        <v>0.51</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2671,7 +3734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2687,7 +3750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2706,7 +3769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2717,15 +3780,15 @@
         <v>5</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="str">
         <f>_xll.QAVMA(A12,B12,C12)</f>
-        <v>143.37</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2746,7 +3809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2755,18 +3818,18 @@
       </c>
       <c r="D14" s="4">
         <f ca="1">TODAY()</f>
-        <v>43970</v>
+        <v>44165</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="1" t="e">
+      <c r="F14" s="1" t="str">
         <f ca="1">_xll.QAVMA(A14,B14,,D14)</f>
-        <v>#NAME?</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2785,7 +3848,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2807,7 +3870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2820,15 +3883,15 @@
       <c r="E17" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="str">
         <f>_xll.QAVMA(A17,B17,C17,D17,E17)</f>
-        <v>151.38</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2853,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED467386-C67B-46C9-BB22-2DE9384781C1}">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -2862,18 +3925,18 @@
       <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.3671875" customWidth="1"/>
-    <col min="5" max="6" width="11.41796875" customWidth="1"/>
-    <col min="8" max="8" width="11.41796875" customWidth="1"/>
-    <col min="9" max="9" width="15.62890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2905,7 +3968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2917,13 +3980,13 @@
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="15" t="str">
+      <c r="I2" s="15">
         <f>_xll.QAVTS(A2,B2,C2)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
+        <v>215.23</v>
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2941,7 +4004,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2953,13 +4016,13 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="15" t="str">
+      <c r="I4" s="15">
         <f>_xll.QAVTS(A4,B4,C4)</f>
-        <v>#AV_CALL_LIMIT_REACHED</v>
+        <v>215.23</v>
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2971,13 +4034,13 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="15">
+      <c r="I5" s="15" t="e">
         <f>_xll.QAVTS(A5,B5,C5)</f>
-        <v>143.63999999999999</v>
+        <v>#N/A</v>
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2989,13 +4052,13 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="15">
+      <c r="I6" s="15" t="e">
         <f>_xll.QAVTS(A6,B6,C6)</f>
-        <v>143.63999999999999</v>
+        <v>#N/A</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3013,7 +4076,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3025,13 +4088,13 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="15" t="e">
+      <c r="I8" s="15">
         <f>_xll.QAVTS(A8,B8,C8)</f>
-        <v>#N/A</v>
+        <v>215.24</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3043,13 +4106,13 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="15" t="e">
+      <c r="I9" s="15">
         <f>_xll.QAVTS(A9,B9,C9)</f>
-        <v>#N/A</v>
+        <v>215.24</v>
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3070,7 +4133,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3091,7 +4154,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3112,7 +4175,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3133,7 +4196,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3154,7 +4217,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3171,11 +4234,11 @@
       <c r="H15" s="11"/>
       <c r="I15" s="15">
         <f>_xll.QAVTS(A15,B15,C15,D15)</f>
-        <v>135.41999999999999</v>
+        <v>215.23</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3187,18 +4250,18 @@
       </c>
       <c r="E16" s="4">
         <f ca="1">TODAY()</f>
-        <v>43970</v>
+        <v>44165</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="15" t="e">
+      <c r="I16" s="15" t="str">
         <f ca="1">_xll.QAVTS(A16,B16,C16,,E16)</f>
-        <v>#NAME?</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -3210,18 +4273,18 @@
       </c>
       <c r="E17" s="4">
         <f ca="1">TODAY()-1</f>
-        <v>43969</v>
+        <v>44164</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="15" t="e">
+      <c r="I17" s="15" t="str">
         <f ca="1">_xll.QAVTS(A17,B17,C17,,E17)</f>
-        <v>#NAME?</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3236,18 +4299,18 @@
       </c>
       <c r="E18" s="4">
         <f ca="1">TODAY()-2</f>
-        <v>43968</v>
+        <v>44163</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="15" t="e">
+      <c r="I18" s="15" t="str">
         <f ca="1">_xll.QAVTS(A18,B18,C18,D18,E18)</f>
-        <v>#NAME?</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -3265,13 +4328,13 @@
       <c r="H19" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="15" t="str">
         <f>_xll.QAVTS(A19,B19,C19,,E19,,,H19)</f>
-        <v>151.38</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -3288,9 +4351,9 @@
         <v>53</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="15">
+      <c r="I20" s="15" t="str">
         <f>_xll.QAVTS(A20,B20,C20,D20,,,G20)</f>
-        <v>137.24</v>
+        <v>#AV_CALL_LIMIT_REACHED</v>
       </c>
       <c r="J20" s="6"/>
     </row>
@@ -3303,7 +4366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B60B6B-DDE8-4F73-B747-7EBA7D2EC7A2}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:F10"/>
@@ -3313,14 +4376,14 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.15625" customWidth="1"/>
-    <col min="5" max="5" width="53.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="53.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3340,20 +4403,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>870747</v>
       </c>
       <c r="B2" s="8"/>
       <c r="D2" s="1">
         <f>_xll.QCB(A2)</f>
-        <v>148.88</v>
+        <v>179.4</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>870747</v>
       </c>
@@ -3363,26 +4426,26 @@
       </c>
       <c r="D3" s="1">
         <f>_xll.QCB(A3,,C3)</f>
-        <v>148.88</v>
+        <v>179.4</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="1">
         <f>_xll.QCB(A4)</f>
-        <v>148.88</v>
+        <v>179.4</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>870747</v>
       </c>
@@ -3391,13 +4454,13 @@
       </c>
       <c r="D5" s="1">
         <f>_xll.QCB(A5,B5)</f>
-        <v>149.02000000000001</v>
+        <v>180.68</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>870747</v>
       </c>
@@ -3409,13 +4472,13 @@
       </c>
       <c r="D6" s="1">
         <f>_xll.QCB(A6,B6,C6)</f>
-        <v>148.72</v>
+        <v>179.02</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -3424,13 +4487,13 @@
       </c>
       <c r="D7" s="1">
         <f>_xll.QCB(A7,B7)</f>
-        <v>148.72</v>
+        <v>179.02</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>870747</v>
       </c>
@@ -3439,7 +4502,7 @@
       </c>
       <c r="D8" s="9">
         <f>_xll.QCBF(A8,B8)</f>
-        <v>149.02000000000001</v>
+        <v>180.68</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>28</v>
@@ -3449,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>870747</v>
       </c>
@@ -3461,7 +4524,7 @@
       </c>
       <c r="D9" s="9">
         <f>_xll.QCBF(A9,B9,C9)</f>
-        <v>148.72</v>
+        <v>179.02</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>29</v>
@@ -3471,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -3480,7 +4543,7 @@
       </c>
       <c r="D10" s="9">
         <f>_xll.QCBF(A10,B10)</f>
-        <v>148.72</v>
+        <v>179.02</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>30</v>
@@ -3497,131 +4560,4 @@
     <ignoredError sqref="D3 D6 D9" formula="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0814B209-FB44-4821-A66E-2214B4B6EE6B}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <f>_xll.QJE(A2)</f>
-        <v>57.55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B12" si="0">_xll.QJE(A3)</f>
-        <v>24.11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>26.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <f>_xll.QJE(A5)</f>
-        <v>6.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>37.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>325.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>30.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>75.790000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>98.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>25.97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>